--- a/out/offspring.xlsx
+++ b/out/offspring.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="11">
   <si>
     <t>Sex</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Male</t>
   </si>
   <si>
-    <t>wild type</t>
+    <t>White eyes</t>
   </si>
   <si>
-    <t>held-out wings</t>
-  </si>
-  <si>
-    <t>ebony body</t>
+    <t>Wild type</t>
   </si>
   <si>
     <t>Female</t>
@@ -460,16 +457,16 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -483,21 +480,21 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -506,21 +503,21 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -529,16 +526,16 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,16 +549,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -575,21 +572,21 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -598,21 +595,21 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -621,21 +618,21 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -644,16 +641,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -667,21 +664,21 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -690,21 +687,21 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -713,21 +710,21 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -736,21 +733,21 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -759,21 +756,21 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -782,16 +779,16 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -805,21 +802,21 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -828,16 +825,16 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -851,21 +848,21 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -874,21 +871,21 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -897,16 +894,16 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,21 +917,21 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -943,21 +940,21 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -966,21 +963,21 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -989,21 +986,21 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1012,21 +1009,21 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1035,21 +1032,21 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1058,21 +1055,21 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1081,16 +1078,16 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1104,21 +1101,21 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1127,16 +1124,16 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1150,16 +1147,16 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1173,21 +1170,21 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1196,21 +1193,21 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1219,21 +1216,21 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1242,16 +1239,16 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,16 +1262,16 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,21 +1285,21 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1311,21 +1308,21 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1334,21 +1331,21 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1357,21 +1354,21 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1380,21 +1377,21 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -1403,21 +1400,21 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -1426,21 +1423,21 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -1449,21 +1446,21 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -1472,21 +1469,21 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -1495,21 +1492,21 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -1518,16 +1515,16 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1541,16 +1538,16 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1564,16 +1561,16 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1587,21 +1584,21 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -1610,21 +1607,21 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -1633,21 +1630,21 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -1656,21 +1653,21 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -1679,16 +1676,16 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1702,21 +1699,21 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -1725,16 +1722,16 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1748,21 +1745,21 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -1771,16 +1768,16 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1794,21 +1791,21 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -1817,21 +1814,21 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -1840,21 +1837,21 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -1863,16 +1860,16 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1886,21 +1883,21 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -1909,16 +1906,16 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -1932,16 +1929,16 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -1955,21 +1952,21 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -1978,21 +1975,21 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -2001,16 +1998,16 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2024,16 +2021,16 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2047,21 +2044,21 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -2070,16 +2067,16 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2093,21 +2090,21 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -2116,21 +2113,21 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -2139,21 +2136,21 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -2162,21 +2159,21 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -2185,21 +2182,21 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -2208,16 +2205,16 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2231,21 +2228,21 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -2254,16 +2251,16 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2277,21 +2274,21 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -2300,21 +2297,21 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -2323,16 +2320,16 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2346,16 +2343,16 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,21 +2366,21 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -2392,21 +2389,21 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -2415,16 +2412,16 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2438,16 +2435,16 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2461,21 +2458,21 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -2484,21 +2481,21 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -2507,16 +2504,16 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,21 +2527,21 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
@@ -2553,21 +2550,21 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -2576,21 +2573,21 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -2599,21 +2596,21 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -2622,16 +2619,16 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2645,21 +2642,21 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -2668,21 +2665,21 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -2691,21 +2688,21 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -2714,16 +2711,16 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2737,16 +2734,16 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/out/offspring.xlsx
+++ b/out/offspring.xlsx
@@ -460,7 +460,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -483,7 +483,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -552,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -575,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -667,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -851,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1104,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1150,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1173,7 +1173,7 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1265,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1288,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1541,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1587,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1702,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1748,7 +1748,7 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1886,7 +1886,7 @@
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1932,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1955,7 +1955,7 @@
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -2024,7 +2024,7 @@
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2047,7 +2047,7 @@
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2093,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2231,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -2277,7 +2277,7 @@
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2346,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
@@ -2369,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
@@ -2438,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
@@ -2461,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
@@ -2530,7 +2530,7 @@
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -2645,7 +2645,7 @@
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
@@ -2737,7 +2737,7 @@
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F101" t="s">
         <v>9</v>

--- a/out/offspring.xlsx
+++ b/out/offspring.xlsx
@@ -520,7 +520,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -575,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -635,7 +635,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -667,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -681,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -750,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -773,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -819,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -865,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1026,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1072,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1141,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1150,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -1256,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -1265,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1302,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -1348,7 +1348,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -1371,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -1417,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1463,7 +1463,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -1486,7 +1486,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -1624,7 +1624,7 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -1647,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -1670,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -1716,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -1785,7 +1785,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1808,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -1854,7 +1854,7 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -1923,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -1932,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1992,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
@@ -2015,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
@@ -2024,7 +2024,7 @@
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
@@ -2153,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
@@ -2199,7 +2199,7 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -2222,7 +2222,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -2231,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -2291,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
@@ -2360,7 +2360,7 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -2369,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
@@ -2406,7 +2406,7 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
@@ -2452,7 +2452,7 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
@@ -2461,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
@@ -2498,7 +2498,7 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
@@ -2544,7 +2544,7 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
@@ -2590,7 +2590,7 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -2659,7 +2659,7 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
@@ -2682,7 +2682,7 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
@@ -2705,7 +2705,7 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
